--- a/NovTest.xlsx
+++ b/NovTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl Local\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl Local\Documents\GitHub\KLDDYork.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C8545-6396-4EE9-9621-BED7E75CB85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5686834A-5A93-46EF-8EDB-5F9D390004A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="3870" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nov test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="148">
   <si>
     <t>Vehicle</t>
   </si>
@@ -362,6 +362,108 @@
   </si>
   <si>
     <t>Remark (Product)2</t>
+  </si>
+  <si>
+    <t>YORLEE/12301</t>
+  </si>
+  <si>
+    <t>2,460 kg</t>
+  </si>
+  <si>
+    <t>YORRIP/12300</t>
+  </si>
+  <si>
+    <t>3,360 kg</t>
+  </si>
+  <si>
+    <t>FN68HBD</t>
+  </si>
+  <si>
+    <t>RIPONR/145711</t>
+  </si>
+  <si>
+    <t>1,780 kg</t>
+  </si>
+  <si>
+    <t>Wiser Recycling</t>
+  </si>
+  <si>
+    <t>St Ives</t>
+  </si>
+  <si>
+    <t>PE27 5UW</t>
+  </si>
+  <si>
+    <t>CBDU90457</t>
+  </si>
+  <si>
+    <t>RX08HAO</t>
+  </si>
+  <si>
+    <t>YORSOW/12298</t>
+  </si>
+  <si>
+    <t>Sowerby</t>
+  </si>
+  <si>
+    <t>YO7 1FA</t>
+  </si>
+  <si>
+    <t>1,760 kg</t>
+  </si>
+  <si>
+    <t>RX08HDF</t>
+  </si>
+  <si>
+    <t>2,500 kg</t>
+  </si>
+  <si>
+    <t>VACUUM</t>
+  </si>
+  <si>
+    <t>Leeds City Council (WEEE Link)</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>LS4 2HR</t>
+  </si>
+  <si>
+    <t>Non-Obligated</t>
+  </si>
+  <si>
+    <t>YORKUN/12297</t>
+  </si>
+  <si>
+    <t>900 kg</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>YO10 5DD</t>
+  </si>
+  <si>
+    <t>2,520 kg</t>
+  </si>
+  <si>
+    <t>COMP/SERVE</t>
+  </si>
+  <si>
+    <t>Intelligent Brokerage</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>HG2 8RB</t>
+  </si>
+  <si>
+    <t>CAT3</t>
+  </si>
+  <si>
+    <t>1,600 kg</t>
   </si>
 </sst>
 </file>
@@ -880,26 +982,64 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -945,7 +1085,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1257,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,1193 +1437,1781 @@
     <col min="22" max="22" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="X1" s="6"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>44151.390104166669</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="7">
         <v>22637</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="W2" s="7"/>
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>44151.436354166668</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="10">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="10">
         <v>22644</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="10"/>
+      <c r="P3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="W3" s="10"/>
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>44152.551874999997</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="13">
         <v>257</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="13">
         <v>90</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="13">
         <v>22670</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="13"/>
+      <c r="P4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>44151.528402777774</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="10">
         <v>24737</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="10">
         <v>22659</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5" t="s">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>44151.533715277779</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="13">
         <v>214</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="13">
         <v>12</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="13">
         <v>22660</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="13"/>
+      <c r="N6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
+      <c r="T6" s="13"/>
+      <c r="U6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>44151.537754629629</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="10">
         <v>226</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="10">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="10">
         <v>22662</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
+      <c r="O7" s="10"/>
+      <c r="P7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5" t="s">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>44151.401493055557</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="13">
         <v>25261</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="13">
         <v>7</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="13">
         <v>22668</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="13"/>
+      <c r="N8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
+      <c r="O8" s="13"/>
+      <c r="P8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4" t="s">
+      <c r="T8" s="13"/>
+      <c r="U8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>44151.404490740744</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="10">
         <v>231</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="10">
         <v>9</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="10">
         <v>22669</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5" t="s">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>44151.525196759256</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="13">
         <v>217</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="13">
         <v>60</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="13">
         <v>22657</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4">
+      <c r="O10" s="13"/>
+      <c r="P10" s="13">
         <v>200135</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4" t="s">
+      <c r="T10" s="13"/>
+      <c r="U10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>44151.526342592595</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="10">
         <v>216</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="10">
         <v>12</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="10">
         <v>22658</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5" t="s">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>44151.381724537037</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="13">
         <v>26547</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="13">
         <v>36</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="13">
         <v>22664</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4">
+      <c r="O12" s="13"/>
+      <c r="P12" s="13">
         <v>200135</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4" t="s">
+      <c r="T12" s="13"/>
+      <c r="U12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>44151.387523148151</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="10">
         <v>26547</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="10">
         <v>4</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="10">
         <v>22665</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
+      <c r="O13" s="10"/>
+      <c r="P13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
+      <c r="T13" s="10"/>
+      <c r="U13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>44151.392777777779</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="13">
         <v>24389</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="13">
         <v>13</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="13">
         <v>22666</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="13"/>
+      <c r="N14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4">
+      <c r="O14" s="13"/>
+      <c r="P14" s="13">
         <v>200135</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4" t="s">
+      <c r="T14" s="13"/>
+      <c r="U14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>44151.395138888889</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="10">
         <v>24389</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="10">
         <v>9</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="10">
         <v>22667</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5" t="s">
+      <c r="O15" s="10"/>
+      <c r="P15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5" t="s">
+      <c r="T15" s="10"/>
+      <c r="U15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>44152.556342592594</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="13">
         <v>259</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="13">
         <v>49</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="13">
         <v>22671</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4">
+      <c r="O16" s="13"/>
+      <c r="P16" s="13">
         <v>200135</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4" t="s">
+      <c r="T16" s="13"/>
+      <c r="U16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="6"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>44152.557511574072</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="10">
         <v>258</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>12</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="10">
         <v>22672</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5" t="s">
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
+      <c r="T17" s="10"/>
+      <c r="U17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="6"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>44152.610289351855</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="16" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="13">
         <v>22673</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4">
+      <c r="O18" s="13"/>
+      <c r="P18" s="13">
         <v>200135</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4" t="s">
+      <c r="T18" s="13"/>
+      <c r="U18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="6"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>44151.535393518519</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="10">
         <v>22789</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="10">
         <v>183</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="10">
         <v>22661</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5" t="s">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5">
+      <c r="O19" s="10"/>
+      <c r="P19" s="10">
         <v>200135</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5" t="s">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="6"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="17">
         <v>44151.549722222226</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="16">
         <v>22663</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6" t="s">
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6" t="s">
+      <c r="O20" s="16"/>
+      <c r="P20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="6" t="s">
+      <c r="U20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="W20" s="6"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="19">
+        <v>44139.645682870374</v>
+      </c>
+      <c r="C21" s="6">
+        <v>24711</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="6">
+        <v>60</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="6">
+        <v>22615</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="19">
+        <v>44139.563668981478</v>
+      </c>
+      <c r="C22" s="6">
+        <v>37519</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="6">
+        <v>98</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="6">
+        <v>22694</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="19">
+        <v>44139.351261574076</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="6">
+        <v>22488</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6">
+        <v>200135</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="19">
+        <v>44139.564884259256</v>
+      </c>
+      <c r="C24" s="6">
+        <v>17883</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="6">
+        <v>131</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="6">
+        <v>22695</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6">
+        <v>200135</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="19">
+        <v>44139.565347222226</v>
+      </c>
+      <c r="C25" s="6">
+        <v>17883</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="6">
+        <v>22696</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="19">
+        <v>44139.565810185188</v>
+      </c>
+      <c r="C26" s="6">
+        <v>17884</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="6">
+        <v>35</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="6">
+        <v>22697</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="19">
+        <v>44139.576620370368</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3121</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="6">
+        <v>22521</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6">
+        <v>200136</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="X28" s="3" t="s">
+      <c r="A28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="19">
+        <v>44139.398113425923</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="6">
+        <v>22582</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="W28" s="6"/>
+      <c r="X28" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B29"/>
+      <c r="A29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="19">
+        <v>44139.501956018517</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6">
+        <v>3118</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="6">
+        <v>22489</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6">
+        <v>200136</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B30"/>
+      <c r="A30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="19">
+        <v>44139.672314814816</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3120</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="6">
+        <v>22517</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6">
+        <v>200136</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31"/>
@@ -2532,6 +3271,9 @@
       <c r="B49"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NovTest.xlsx
+++ b/NovTest.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl Local\Documents\GitHub\KLDDYork.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50BECB9-B77A-4FAB-B263-E7DAD79A6475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1B55B6-8BD6-41BD-BE55-8055A854419E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="18630" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="113">
   <si>
     <t>Vehicle</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Remark (Client)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>F18RRL</t>
@@ -367,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1202,20 +1199,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" customWidth="1"/>
+    <col min="20" max="20" width="31" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1282,13 +1290,10 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>44161.45416666667</v>
@@ -1297,51 +1302,51 @@
         <v>17942</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>59</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
       </c>
       <c r="I2">
         <v>22799</v>
       </c>
       <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>44161.455347222225</v>
@@ -1350,124 +1355,124 @@
         <v>906</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
       </c>
       <c r="I3">
         <v>22800</v>
       </c>
       <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
       <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>44161.375868055555</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>22781</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>44161.637395833335</v>
       </c>
       <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
       </c>
       <c r="I5">
         <v>22789</v>
       </c>
       <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
         <v>46</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>48</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
         <v>49</v>
       </c>
-      <c r="T5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" t="s">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>44161.443807870368</v>
@@ -1476,51 +1481,51 @@
         <v>976</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>7</v>
       </c>
       <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>22792</v>
       </c>
       <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
       </c>
       <c r="P6">
         <v>200135</v>
       </c>
       <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
         <v>56</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>57</v>
       </c>
-      <c r="S6" t="s">
-        <v>58</v>
-      </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>44161.446087962962</v>
@@ -1529,51 +1534,51 @@
         <v>975</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>22793</v>
       </c>
       <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
       <c r="P7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" t="s">
-        <v>62</v>
-      </c>
       <c r="R7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" t="s">
         <v>57</v>
       </c>
-      <c r="S7" t="s">
-        <v>58</v>
-      </c>
       <c r="U7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>44161.450613425928</v>
@@ -1582,51 +1587,51 @@
         <v>978</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <v>22796</v>
       </c>
       <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" t="s">
         <v>65</v>
       </c>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>66</v>
       </c>
-      <c r="S8" t="s">
-        <v>67</v>
-      </c>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>44161.452499999999</v>
@@ -1635,51 +1640,51 @@
         <v>26765</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>22797</v>
       </c>
       <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
         <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
       </c>
       <c r="P9">
         <v>200135</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" t="s">
         <v>71</v>
       </c>
-      <c r="S9" t="s">
-        <v>72</v>
-      </c>
       <c r="U9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>44161.453043981484</v>
@@ -1688,51 +1693,51 @@
         <v>26764</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10">
         <v>22798</v>
       </c>
       <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>74</v>
-      </c>
-      <c r="N10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" t="s">
-        <v>72</v>
-      </c>
-      <c r="U10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>75</v>
       </c>
       <c r="B11" s="1">
         <v>44161.447569444441</v>
@@ -1741,51 +1746,51 @@
         <v>979</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11">
         <v>22794</v>
       </c>
       <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
         <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
       </c>
       <c r="P11">
         <v>200135</v>
       </c>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" t="s">
         <v>79</v>
       </c>
-      <c r="S11" t="s">
-        <v>80</v>
-      </c>
       <c r="U11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
         <v>44161.448587962965</v>
@@ -1794,51 +1799,51 @@
         <v>981</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <v>22795</v>
       </c>
       <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" t="s">
         <v>78</v>
       </c>
-      <c r="N12" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>62</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>79</v>
       </c>
-      <c r="S12" t="s">
-        <v>80</v>
-      </c>
       <c r="U12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1">
         <v>44161.460497685184</v>
@@ -1847,48 +1852,48 @@
         <v>963</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13">
         <v>22801</v>
       </c>
       <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
         <v>28</v>
-      </c>
-      <c r="N13" t="s">
-        <v>29</v>
       </c>
       <c r="P13">
         <v>200135</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" t="s">
         <v>84</v>
       </c>
-      <c r="S13" t="s">
-        <v>85</v>
-      </c>
       <c r="U13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1">
         <v>44161.46125</v>
@@ -1897,48 +1902,48 @@
         <v>962</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14">
         <v>22802</v>
       </c>
       <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
         <v>28</v>
       </c>
-      <c r="N14" t="s">
-        <v>29</v>
-      </c>
       <c r="P14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" t="s">
-        <v>62</v>
-      </c>
       <c r="R14" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" t="s">
         <v>84</v>
       </c>
-      <c r="S14" t="s">
-        <v>85</v>
-      </c>
       <c r="U14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1">
         <v>44161.509780092594</v>
@@ -1947,51 +1952,51 @@
         <v>17940</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15">
         <v>22785</v>
       </c>
       <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
         <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" t="s">
-        <v>29</v>
       </c>
       <c r="P15">
         <v>200135</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" t="s">
         <v>32</v>
       </c>
-      <c r="S15" t="s">
-        <v>33</v>
-      </c>
       <c r="U15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1">
         <v>44161.513923611114</v>
@@ -2000,54 +2005,54 @@
         <v>27145</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16">
         <v>22787</v>
       </c>
       <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" t="s">
         <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>93</v>
-      </c>
-      <c r="N16" t="s">
-        <v>29</v>
       </c>
       <c r="P16">
         <v>200135</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
+        <v>93</v>
+      </c>
+      <c r="S16" t="s">
         <v>94</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" t="s">
         <v>95</v>
-      </c>
-      <c r="U16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1">
         <v>44161.517951388887</v>
@@ -2056,54 +2061,54 @@
         <v>27144</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17">
         <v>22788</v>
       </c>
       <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" t="s">
         <v>28</v>
       </c>
-      <c r="L17" t="s">
+      <c r="P17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" t="s">
         <v>93</v>
       </c>
-      <c r="N17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>94</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" t="s">
         <v>95</v>
-      </c>
-      <c r="U17" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1">
         <v>44161.443888888891</v>
@@ -2112,48 +2117,48 @@
         <v>898</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18">
         <v>22783</v>
       </c>
       <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
         <v>28</v>
       </c>
-      <c r="N18" t="s">
-        <v>29</v>
-      </c>
       <c r="P18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" t="s">
-        <v>62</v>
-      </c>
       <c r="R18" t="s">
+        <v>100</v>
+      </c>
+      <c r="S18" t="s">
         <v>101</v>
       </c>
-      <c r="S18" t="s">
-        <v>102</v>
-      </c>
       <c r="U18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1">
         <v>44161.4450462963</v>
@@ -2162,48 +2167,48 @@
         <v>909</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19">
         <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19">
         <v>22784</v>
       </c>
       <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
         <v>28</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
       </c>
       <c r="P19">
         <v>200135</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R19" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" t="s">
         <v>101</v>
       </c>
-      <c r="S19" t="s">
-        <v>102</v>
-      </c>
       <c r="U19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1">
         <v>44161.511886574073</v>
@@ -2212,96 +2217,96 @@
         <v>17940</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20">
         <v>22786</v>
       </c>
       <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" t="s">
         <v>28</v>
       </c>
-      <c r="L20" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" t="s">
-        <v>29</v>
-      </c>
       <c r="P20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" t="s">
-        <v>62</v>
-      </c>
       <c r="R20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" t="s">
         <v>32</v>
       </c>
-      <c r="S20" t="s">
-        <v>33</v>
-      </c>
       <c r="U20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1">
         <v>44161.380543981482</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21">
         <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21">
         <v>22782</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" t="s">
         <v>110</v>
-      </c>
-      <c r="N21" t="s">
-        <v>111</v>
       </c>
       <c r="P21">
         <v>200135</v>
       </c>
       <c r="Q21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R21" t="s">
+        <v>111</v>
+      </c>
+      <c r="S21" t="s">
         <v>112</v>
       </c>
-      <c r="S21" t="s">
-        <v>113</v>
-      </c>
       <c r="U21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
